--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AE8A46-6874-754C-8D9C-ACF0C7727815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A16081B-0ACE-F84F-8CA1-F2607675214B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>수강년도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,197 +482,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>2015</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2015</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="b">
+      <c r="I3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>2015</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="b">
+      <c r="I4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>2021</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="b">
+      <c r="I5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>2021</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="b">
+      <c r="I6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>2021</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" t="b">
+      <c r="I7" t="b">
         <v>0</v>
       </c>
     </row>
